--- a/public/assets/tempfiles/programs.xlsx
+++ b/public/assets/tempfiles/programs.xlsx
@@ -140,10 +140,10 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.08"/>
@@ -168,7 +168,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>3</v>
+        <v>12345</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -179,7 +179,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>3</v>
+        <v>12345</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/tempfiles/programs.xlsx
+++ b/public/assets/tempfiles/programs.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="programs" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="users (1)" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,15 +20,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t xml:space="preserve">programCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">programName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instUid</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+  <si>
+    <t xml:space="preserve">Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inst_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automobile Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dress Design</t>
   </si>
   <si>
     <t xml:space="preserve">EE</t>
@@ -37,25 +70,67 @@
     <t xml:space="preserve">Electrical Engineering</t>
   </si>
   <si>
-    <t xml:space="preserve">CE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Civil Engineering</t>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronics and Telecommunication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mechanical Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metallurgical Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Coating Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -115,8 +190,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -137,49 +224,182 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="6.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>12345</v>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>12345</v>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
